--- a/VersionRecords/Version 5.0.4.1 20161027/版本Bug和特性计划及评审表v5.0.4.1.xlsx
+++ b/VersionRecords/Version 5.0.4.1 20161027/版本Bug和特性计划及评审表v5.0.4.1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="109">
   <si>
     <t>No</t>
   </si>
@@ -959,6 +959,12 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -970,12 +976,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1359,7 +1359,7 @@
   <dimension ref="A1:V179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1582,7 +1582,7 @@
       <c r="D4" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="31" t="s">
         <v>71</v>
       </c>
       <c r="F4" s="50" t="s">
@@ -1948,10 +1948,16 @@
       <c r="V10" s="43"/>
     </row>
     <row r="11" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="58" t="s">
+      <c r="A11" s="29">
+        <v>10</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="54" t="s">
         <v>100</v>
       </c>
       <c r="E11" s="50" t="s">
@@ -1991,9 +1997,9 @@
       <c r="Q11" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="55"/>
       <c r="U11" s="42"/>
       <c r="V11" s="43"/>
     </row>
@@ -6857,36 +6863,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="55"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="57"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="57"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">

--- a/VersionRecords/Version 5.0.4.1 20161027/版本Bug和特性计划及评审表v5.0.4.1.xlsx
+++ b/VersionRecords/Version 5.0.4.1 20161027/版本Bug和特性计划及评审表v5.0.4.1.xlsx
@@ -1359,7 +1359,7 @@
   <dimension ref="A1:V179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1757,7 +1757,9 @@
       <c r="I7" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="J7" s="51"/>
+      <c r="J7" s="51">
+        <v>42670</v>
+      </c>
       <c r="K7" s="50"/>
       <c r="L7" s="46" t="s">
         <v>76</v>
@@ -1813,7 +1815,9 @@
       <c r="I8" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="51"/>
+      <c r="J8" s="51">
+        <v>42670</v>
+      </c>
       <c r="K8" s="50"/>
       <c r="L8" s="46" t="s">
         <v>86</v>
@@ -1867,7 +1871,9 @@
       <c r="I9" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="J9" s="51"/>
+      <c r="J9" s="51">
+        <v>42670</v>
+      </c>
       <c r="K9" s="50"/>
       <c r="L9" s="46" t="s">
         <v>92</v>
@@ -1921,7 +1927,9 @@
       <c r="I10" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="J10" s="51"/>
+      <c r="J10" s="51">
+        <v>42670</v>
+      </c>
       <c r="K10" s="50"/>
       <c r="L10" s="46" t="s">
         <v>97</v>

--- a/VersionRecords/Version 5.0.4.1 20161027/版本Bug和特性计划及评审表v5.0.4.1.xlsx
+++ b/VersionRecords/Version 5.0.4.1 20161027/版本Bug和特性计划及评审表v5.0.4.1.xlsx
@@ -17,7 +17,7 @@
     <sheet name="配置文件（生产环境）" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.4新特性|Fix Bug'!$A$1:$U$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.4新特性|Fix Bug'!$A$1:$U$19</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="131">
   <si>
     <t>No</t>
   </si>
@@ -510,6 +510,84 @@
   <si>
     <t>能</t>
     <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决“关闭待关闭的蘑菇宝”定时器出现的报错日志</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>tasktracker</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅寰寰</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+  </si>
+  <si>
+    <t>能</t>
+  </si>
+  <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>“消息列表”中的发送渠道如果是“昊博”没有显示出来</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏玉军</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+  </si>
+  <si>
+    <t>紧急</t>
+  </si>
+  <si>
+    <t>BS房东联系地址显示更新</t>
+  </si>
+  <si>
+    <t>New Feature</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>吕崇新</t>
+  </si>
+  <si>
+    <t>田东兴</t>
+  </si>
+  <si>
+    <t>否</t>
   </si>
 </sst>
 </file>
@@ -796,7 +874,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -963,6 +1041,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1356,10 +1440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V179"/>
+  <dimension ref="A1:V180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1627,59 +1711,65 @@
       <c r="U4" s="44"/>
       <c r="V4" s="43"/>
     </row>
-    <row r="5" spans="1:22" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="29">
         <v>4</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>69</v>
+        <v>125</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>126</v>
       </c>
       <c r="F5" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="51">
+        <v>127</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="32">
         <v>42670</v>
       </c>
-      <c r="I5" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="J5" s="51">
+      <c r="I5" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="32">
         <v>42670</v>
       </c>
-      <c r="K5" s="50"/>
+      <c r="K5" s="31"/>
       <c r="L5" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="M5" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="N5" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="O5" s="46"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="46"/>
+        <v>128</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="O5" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="32">
+        <v>42670</v>
+      </c>
+      <c r="Q5" s="39" t="s">
+        <v>115</v>
+      </c>
       <c r="R5" s="36"/>
       <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="52" t="s">
-        <v>65</v>
-      </c>
+      <c r="T5" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="U5" s="44"/>
       <c r="V5" s="43"/>
     </row>
-    <row r="6" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="29">
         <v>5</v>
       </c>
@@ -1690,16 +1780,16 @@
         <v>48</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F6" s="50" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H6" s="51">
         <v>42670</v>
@@ -1720,16 +1810,26 @@
       <c r="N6" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="O6" s="46"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="46"/>
+      <c r="O6" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="32">
+        <v>42670</v>
+      </c>
+      <c r="Q6" s="39" t="s">
+        <v>115</v>
+      </c>
       <c r="R6" s="36"/>
       <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="53"/>
+      <c r="T6" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="U6" s="52" t="s">
+        <v>65</v>
+      </c>
       <c r="V6" s="43"/>
     </row>
-    <row r="7" spans="1:22" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="29">
         <v>6</v>
       </c>
@@ -1740,54 +1840,54 @@
         <v>48</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E7" s="50" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F7" s="50" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G7" s="50" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="H7" s="51">
         <v>42670</v>
       </c>
       <c r="I7" s="50" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="J7" s="51">
         <v>42670</v>
       </c>
       <c r="K7" s="50"/>
       <c r="L7" s="46" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="M7" s="50" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="N7" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="O7" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="P7" s="51">
+        <v>64</v>
+      </c>
+      <c r="O7" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="32">
         <v>42670</v>
       </c>
-      <c r="Q7" s="46" t="s">
-        <v>80</v>
+      <c r="Q7" s="39" t="s">
+        <v>115</v>
       </c>
       <c r="R7" s="36"/>
       <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="52" t="s">
-        <v>81</v>
-      </c>
+      <c r="T7" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="U7" s="53"/>
       <c r="V7" s="43"/>
     </row>
-    <row r="8" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="29">
         <v>7</v>
       </c>
@@ -1798,13 +1898,13 @@
         <v>48</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F8" s="50" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G8" s="50" t="s">
         <v>75</v>
@@ -1813,20 +1913,20 @@
         <v>42670</v>
       </c>
       <c r="I8" s="50" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J8" s="51">
         <v>42670</v>
       </c>
       <c r="K8" s="50"/>
       <c r="L8" s="46" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="M8" s="50" t="s">
         <v>77</v>
       </c>
       <c r="N8" s="50" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="O8" s="46" t="s">
         <v>79</v>
@@ -1835,12 +1935,16 @@
         <v>42670</v>
       </c>
       <c r="Q8" s="46" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="R8" s="36"/>
       <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="53"/>
+      <c r="T8" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="U8" s="52" t="s">
+        <v>81</v>
+      </c>
       <c r="V8" s="43"/>
     </row>
     <row r="9" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -1854,16 +1958,16 @@
         <v>48</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E9" s="50" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F9" s="50" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G9" s="50" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H9" s="51">
         <v>42670</v>
@@ -1876,26 +1980,28 @@
       </c>
       <c r="K9" s="50"/>
       <c r="L9" s="46" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="M9" s="50" t="s">
         <v>77</v>
       </c>
       <c r="N9" s="50" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="O9" s="46" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="P9" s="51">
         <v>42670</v>
       </c>
       <c r="Q9" s="46" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="R9" s="36"/>
       <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
+      <c r="T9" s="45" t="s">
+        <v>130</v>
+      </c>
       <c r="U9" s="53"/>
       <c r="V9" s="43"/>
     </row>
@@ -1910,13 +2016,13 @@
         <v>48</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G10" s="50" t="s">
         <v>85</v>
@@ -1932,16 +2038,16 @@
       </c>
       <c r="K10" s="50"/>
       <c r="L10" s="46" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="M10" s="50" t="s">
         <v>77</v>
       </c>
       <c r="N10" s="50" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="O10" s="46" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="P10" s="51">
         <v>42670</v>
@@ -1951,7 +2057,9 @@
       </c>
       <c r="R10" s="36"/>
       <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
+      <c r="T10" s="45" t="s">
+        <v>130</v>
+      </c>
       <c r="U10" s="53"/>
       <c r="V10" s="43"/>
     </row>
@@ -1965,121 +2073,225 @@
       <c r="C11" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="54" t="s">
-        <v>100</v>
+      <c r="D11" s="49" t="s">
+        <v>95</v>
       </c>
       <c r="E11" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="51">
+        <v>42670</v>
+      </c>
+      <c r="I11" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="51">
+        <v>42670</v>
+      </c>
+      <c r="K11" s="50"/>
+      <c r="L11" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="M11" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="N11" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="P11" s="51">
+        <v>42670</v>
+      </c>
+      <c r="Q11" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="U11" s="53"/>
+      <c r="V11" s="43"/>
+    </row>
+    <row r="12" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="29">
+        <v>11</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G12" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H12" s="32">
         <v>42669</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I12" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J12" s="32">
         <v>42669</v>
       </c>
-      <c r="K11" s="31"/>
-      <c r="L11" s="39" t="s">
+      <c r="K12" s="31"/>
+      <c r="L12" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="M11" s="39" t="s">
+      <c r="M12" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="N11" s="39" t="s">
+      <c r="N12" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="O11" s="39" t="s">
+      <c r="O12" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="P11" s="32">
+      <c r="P12" s="32">
         <v>42669</v>
       </c>
-      <c r="Q11" s="39" t="s">
+      <c r="Q12" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="R11" s="55"/>
-      <c r="S11" s="55"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="43"/>
-    </row>
-    <row r="12" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="45"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="45" t="s">
+        <v>130</v>
+      </c>
       <c r="U12" s="42"/>
       <c r="V12" s="43"/>
     </row>
     <row r="13" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
+      <c r="A13" s="29">
+        <v>12</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" s="32">
+        <v>42670</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="32">
+        <v>42670</v>
+      </c>
       <c r="K13" s="31"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="42"/>
+      <c r="L13" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="M13" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="N13" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="O13" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="P13" s="32">
+        <v>42670</v>
+      </c>
+      <c r="Q13" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="R13" s="55"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="U13" s="39"/>
       <c r="V13" s="43"/>
     </row>
     <row r="14" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="32"/>
+      <c r="A14" s="29">
+        <v>13</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" s="32">
+        <v>42670</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="32">
+        <v>42670</v>
+      </c>
       <c r="K14" s="31"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="39"/>
+      <c r="L14" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="N14" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="O14" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="P14" s="32">
+        <v>42670</v>
+      </c>
+      <c r="Q14" s="39" t="s">
+        <v>45</v>
+      </c>
       <c r="R14" s="36"/>
       <c r="S14" s="36"/>
-      <c r="T14" s="45"/>
+      <c r="T14" s="45" t="s">
+        <v>130</v>
+      </c>
       <c r="U14" s="42"/>
       <c r="V14" s="43"/>
     </row>
@@ -2092,7 +2304,7 @@
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
       <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
+      <c r="I15" s="31"/>
       <c r="J15" s="32"/>
       <c r="K15" s="31"/>
       <c r="L15" s="39"/>
@@ -2164,7 +2376,7 @@
       <c r="F18" s="31"/>
       <c r="G18" s="31"/>
       <c r="H18" s="32"/>
-      <c r="I18" s="31"/>
+      <c r="I18" s="32"/>
       <c r="J18" s="32"/>
       <c r="K18" s="31"/>
       <c r="L18" s="39"/>
@@ -2206,13 +2418,13 @@
     <row r="20" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="29"/>
       <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="30"/>
       <c r="E20" s="31"/>
       <c r="F20" s="31"/>
       <c r="G20" s="31"/>
       <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
+      <c r="I20" s="31"/>
       <c r="J20" s="32"/>
       <c r="K20" s="31"/>
       <c r="L20" s="39"/>
@@ -2223,7 +2435,7 @@
       <c r="Q20" s="39"/>
       <c r="R20" s="36"/>
       <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
+      <c r="T20" s="45"/>
       <c r="U20" s="42"/>
       <c r="V20" s="43"/>
     </row>
@@ -2252,27 +2464,27 @@
       <c r="V21" s="43"/>
     </row>
     <row r="22" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="33"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
       <c r="F22" s="31"/>
       <c r="G22" s="31"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="34"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="39"/>
       <c r="R22" s="36"/>
       <c r="S22" s="36"/>
       <c r="T22" s="36"/>
-      <c r="U22" s="34"/>
+      <c r="U22" s="42"/>
       <c r="V22" s="43"/>
     </row>
     <row r="23" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -2299,28 +2511,29 @@
       <c r="U23" s="34"/>
       <c r="V23" s="43"/>
     </row>
-    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="36"/>
+    <row r="24" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="33"/>
       <c r="F24" s="31"/>
       <c r="G24" s="31"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="37"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="34"/>
       <c r="R24" s="36"/>
       <c r="S24" s="36"/>
       <c r="T24" s="36"/>
-      <c r="U24" s="37"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="43"/>
     </row>
     <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="36"/>
@@ -3571,7 +3784,7 @@
       <c r="D79" s="37"/>
       <c r="E79" s="36"/>
       <c r="F79" s="31"/>
-      <c r="G79" s="36"/>
+      <c r="G79" s="31"/>
       <c r="H79" s="38"/>
       <c r="I79" s="36"/>
       <c r="J79" s="38"/>
@@ -3702,13 +3915,13 @@
       <c r="T84" s="36"/>
       <c r="U84" s="37"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A85" s="36"/>
       <c r="B85" s="36"/>
       <c r="C85" s="36"/>
       <c r="D85" s="37"/>
       <c r="E85" s="36"/>
-      <c r="F85" s="36"/>
+      <c r="F85" s="31"/>
       <c r="G85" s="36"/>
       <c r="H85" s="38"/>
       <c r="I85" s="36"/>
@@ -5100,6 +5313,9 @@
       <c r="O145" s="36"/>
       <c r="P145" s="38"/>
       <c r="Q145" s="37"/>
+      <c r="R145" s="36"/>
+      <c r="S145" s="36"/>
+      <c r="T145" s="36"/>
       <c r="U145" s="37"/>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.15">
@@ -5782,8 +5998,28 @@
       <c r="Q179" s="37"/>
       <c r="U179" s="37"/>
     </row>
+    <row r="180" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A180" s="36"/>
+      <c r="B180" s="36"/>
+      <c r="C180" s="36"/>
+      <c r="D180" s="37"/>
+      <c r="E180" s="36"/>
+      <c r="F180" s="36"/>
+      <c r="G180" s="36"/>
+      <c r="H180" s="38"/>
+      <c r="I180" s="36"/>
+      <c r="J180" s="38"/>
+      <c r="K180" s="41"/>
+      <c r="L180" s="36"/>
+      <c r="M180" s="36"/>
+      <c r="N180" s="36"/>
+      <c r="O180" s="36"/>
+      <c r="P180" s="38"/>
+      <c r="Q180" s="37"/>
+      <c r="U180" s="37"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:U18"/>
+  <autoFilter ref="A1:U19"/>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
@@ -6871,36 +7107,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="59"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="61"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
